--- a/biology/Zoologie/Geosaurinae/Geosaurinae.xlsx
+++ b/biology/Zoologie/Geosaurinae/Geosaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geosaurinae (géosaurinés en français) forment une sous-famille éteinte de crocodyliformes métriorhynchoïdes carnivores, à rostre court, presque exclusivement marins[1],[2].
-Ils ont vécu du Jurassique moyen au Crétacé inférieur (du Bajocien au Valanginien), soit il y a environ entre 170,9 et ≃132,9 millions d'années. Leurs fossiles ont été retrouvés en Europe et en Amérique du Nord et du Sud[3],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geosaurinae (géosaurinés en français) forment une sous-famille éteinte de crocodyliformes métriorhynchoïdes carnivores, à rostre court, presque exclusivement marins,.
+Ils ont vécu du Jurassique moyen au Crétacé inférieur (du Bajocien au Valanginien), soit il y a environ entre 170,9 et ≃132,9 millions d'années. Leurs fossiles ont été retrouvés en Europe et en Amérique du Nord et du Sud,.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geosaurinae sont définis par Mark T. Young et Marco B. de Andrade en 2009 comme le clade le plus inclusif, intégrant Geosaurus giganteus, mais pas Metriorhynchus geoffroyii[1], ce dernier appartenant à l'autre sous-famille de Metriorhynchidae, les Metriorhynchinae.
-Au sein de la sous-famille des Geosaurinae, les genres Dakosaurus et Geosaurus sont regroupés dans la tribu des Geosaurini, définie par Andrea Cau et Federico Fanti en 2011 comme le clade le plus inclusif regroupant Geosaurus giganteus et Dakosaurus maximus[3], parfois également des genres Torvoneustes, voire Aggiosaurus, Ieldraan, Plesiosuchus et Suchodus[4].
-Liste des genres
-† Neptunidraco
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geosaurinae sont définis par Mark T. Young et Marco B. de Andrade en 2009 comme le clade le plus inclusif, intégrant Geosaurus giganteus, mais pas Metriorhynchus geoffroyii, ce dernier appartenant à l'autre sous-famille de Metriorhynchidae, les Metriorhynchinae.
+Au sein de la sous-famille des Geosaurinae, les genres Dakosaurus et Geosaurus sont regroupés dans la tribu des Geosaurini, définie par Andrea Cau et Federico Fanti en 2011 comme le clade le plus inclusif regroupant Geosaurus giganteus et Dakosaurus maximus, parfois également des genres Torvoneustes, voire Aggiosaurus, Ieldraan, Plesiosuchus et Suchodus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geosaurinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geosaurinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">† Neptunidraco
 † Purranisaurus
 † Torvoneustes
 † Tyrannoneustes
@@ -527,8 +576,43 @@
 † Ieldraan
 † Plesiosuchus
 † Suchodus
-Cladogramme
-Le cladogramme ci-dessous reprend les résultats de l'analyse phylogénétique de Mark T. Young, Mark A. Bell, Marco Brandalise de Andrade et Stephen L. Brusatte en 2011[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geosaurinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geosaurinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous reprend les résultats de l'analyse phylogénétique de Mark T. Young, Mark A. Bell, Marco Brandalise de Andrade et Stephen L. Brusatte en 2011 :
 </t>
         </is>
       </c>
